--- a/HKCAD_logbook_format.xlsx
+++ b/HKCAD_logbook_format.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Year</t>
   </si>
@@ -53,15 +53,84 @@
     <t>From                 To</t>
   </si>
   <si>
-    <t>Pilot-in-
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">Pilot-in-
 command
-P1</t>
+P1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="5.0"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
   </si>
   <si>
     <t>Co-pilot</t>
   </si>
   <si>
-    <t>Dual</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Dual
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="5.0"/>
+      </rPr>
+      <t>(4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">Pilot-in-
+command
+P1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="5.0"/>
+      </rPr>
+      <t>(5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">Dual
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="5.0"/>
+      </rPr>
+      <t>(8)</t>
+    </r>
   </si>
   <si>
     <t>Month/Date</t>
@@ -76,28 +145,82 @@
     <t>(Dep)    (Times)    (Arr)</t>
   </si>
   <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P2X</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">P2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="5.0"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">P2X
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="5.0"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">P2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="5.0"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">P2X
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="5.0"/>
+      </rPr>
+      <t>(7)</t>
+    </r>
   </si>
   <si>
     <t>-----</t>
   </si>
   <si>
     <t>Totals brought forward</t>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>(6)</t>
-  </si>
-  <si>
-    <t>(7)</t>
   </si>
   <si>
     <t>Total carried forward</t>
@@ -116,7 +239,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -128,6 +251,10 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="5.0"/>
       <color theme="1"/>
@@ -148,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border/>
     <border>
       <right style="thin">
@@ -218,6 +345,36 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <right style="thin">
@@ -253,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -266,9 +423,6 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -284,54 +438,60 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf quotePrefix="1" borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -555,7 +715,18 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="7" max="7" width="22.0"/>
+    <col customWidth="1" min="5" max="5" width="17.38"/>
+    <col customWidth="1" min="7" max="7" width="35.25"/>
+    <col customWidth="1" min="8" max="8" width="8.38"/>
+    <col customWidth="1" min="9" max="10" width="6.75"/>
+    <col customWidth="1" min="11" max="11" width="4.38"/>
+    <col customWidth="1" min="12" max="12" width="9.75"/>
+    <col customWidth="1" min="13" max="13" width="6.75"/>
+    <col customWidth="1" min="14" max="14" width="6.63"/>
+    <col customWidth="1" min="15" max="15" width="4.38"/>
+    <col customWidth="1" min="16" max="16" width="8.88"/>
+    <col customWidth="1" min="17" max="17" width="8.0"/>
+    <col customWidth="1" min="18" max="18" width="36.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -578,605 +749,573 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="7"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
       <c r="O1" s="7"/>
-      <c r="P1" s="8"/>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="Q1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="16" t="s">
+      <c r="J2" s="15"/>
+      <c r="K2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="15" t="s">
+      <c r="L2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
     </row>
     <row r="3" ht="35.25" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="22" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="C4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="27"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="25"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
     </row>
     <row r="6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="27"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
     </row>
     <row r="7">
-      <c r="A7" s="28"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="27"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
     </row>
     <row r="8">
-      <c r="A8" s="28"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="27"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
     </row>
     <row r="9">
-      <c r="A9" s="28"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="27"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
     </row>
     <row r="10">
-      <c r="A10" s="28"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
     </row>
     <row r="11">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="27"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
     </row>
     <row r="12">
-      <c r="A12" s="28"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
     </row>
     <row r="13">
-      <c r="A13" s="28"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
     </row>
     <row r="14">
-      <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="27"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
     </row>
     <row r="16">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="27"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="27"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
     </row>
     <row r="18">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="28"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
     </row>
     <row r="20">
-      <c r="A20" s="28"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="28"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="27"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
     </row>
     <row r="22">
-      <c r="A22" s="28"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="27"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
     </row>
     <row r="23">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="26"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
     </row>
     <row r="24">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="33" t="s">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
     </row>
     <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="35" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="36">
-        <f>sum(K24:R24)</f>
+      <c r="P25" s="37">
+        <f>sum(J24:Q24)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="Q25" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="S25" s="5"/>
+      <c r="R25" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="M1:P1"/>
+  <mergeCells count="17">
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="P1:P3"/>
     <mergeCell ref="Q1:Q3"/>
     <mergeCell ref="R1:R3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="J25:O25"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C2"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
-    <mergeCell ref="H1:H3"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K25:P25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
